--- a/ProjectExecution/BA/ImageResources/ThemeColorPalette001.xlsx
+++ b/ProjectExecution/BA/ImageResources/ThemeColorPalette001.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="75" windowWidth="9495" windowHeight="7695" activeTab="1"/>
@@ -110,8 +110,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -558,6 +558,11 @@
       <color rgb="FFDFDFFF"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -636,6 +641,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -670,6 +676,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -845,14 +852,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="25" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" style="25" customWidth="1"/>
@@ -862,7 +869,7 @@
     <col min="6" max="16384" width="14.42578125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="60">
+    <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>18</v>
       </c>
@@ -871,7 +878,7 @@
       <c r="D1" s="33"/>
       <c r="E1" s="33"/>
     </row>
-    <row r="2" spans="1:5" ht="30">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>28</v>
       </c>
@@ -880,7 +887,7 @@
       <c r="D2" s="33"/>
       <c r="E2" s="33"/>
     </row>
-    <row r="3" spans="1:5" ht="18">
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>29</v>
       </c>
@@ -889,7 +896,7 @@
       <c r="D3" s="36"/>
       <c r="E3" s="36"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>19</v>
       </c>
@@ -906,7 +913,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>24</v>
       </c>
@@ -921,21 +928,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="31"/>
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
       <c r="E6" s="30"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="31"/>
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
       <c r="D7" s="30"/>
       <c r="E7" s="30"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
@@ -953,7 +960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
@@ -963,17 +970,17 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="8" width="6.7109375" customWidth="1"/>
     <col min="9" max="9" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="21" customHeight="1" thickBot="1">
+    <row r="1" spans="2:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="2:11" ht="21" customHeight="1" thickBot="1">
+    <row r="2" spans="2:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -999,7 +1006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="21" customHeight="1" thickTop="1" thickBot="1">
+    <row r="3" spans="2:11" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6">
         <v>1</v>
       </c>
@@ -1023,7 +1030,7 @@
       </c>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="2:11" ht="21" customHeight="1" thickTop="1" thickBot="1">
+    <row r="4" spans="2:11" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6">
         <v>2</v>
       </c>
@@ -1047,7 +1054,7 @@
       </c>
       <c r="I4" s="11"/>
     </row>
-    <row r="5" spans="2:11" ht="21" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="2:11" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6">
         <v>3</v>
       </c>
@@ -1071,7 +1078,7 @@
       </c>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="2:11" ht="21" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="2:11" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6">
         <v>4</v>
       </c>
@@ -1095,7 +1102,7 @@
       </c>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="2:11" ht="21" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="2:11" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
         <v>5</v>
       </c>
@@ -1119,7 +1126,7 @@
       </c>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="2:11" ht="21" customHeight="1" thickTop="1" thickBot="1">
+    <row r="8" spans="2:11" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
         <v>6</v>
       </c>
@@ -1143,7 +1150,7 @@
       </c>
       <c r="I8" s="15"/>
     </row>
-    <row r="9" spans="2:11" ht="21" customHeight="1" thickTop="1" thickBot="1">
+    <row r="9" spans="2:11" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6">
         <v>7</v>
       </c>
@@ -1167,7 +1174,7 @@
       </c>
       <c r="I9" s="16"/>
     </row>
-    <row r="10" spans="2:11" ht="21" customHeight="1" thickTop="1" thickBot="1">
+    <row r="10" spans="2:11" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
         <v>8</v>
       </c>
@@ -1191,7 +1198,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="2:11" ht="21" customHeight="1" thickTop="1" thickBot="1">
+    <row r="11" spans="2:11" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
         <v>9</v>
       </c>
@@ -1215,7 +1222,7 @@
       </c>
       <c r="I11" s="18"/>
     </row>
-    <row r="12" spans="2:11" ht="21" customHeight="1" thickTop="1" thickBot="1">
+    <row r="12" spans="2:11" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6">
         <v>10</v>
       </c>
@@ -1240,7 +1247,7 @@
       <c r="I12" s="19"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="2:11" ht="21" customHeight="1" thickTop="1" thickBot="1">
+    <row r="13" spans="2:11" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
         <v>11</v>
       </c>
@@ -1264,7 +1271,7 @@
       </c>
       <c r="I13" s="20"/>
     </row>
-    <row r="14" spans="2:11" ht="21" customHeight="1" thickTop="1" thickBot="1">
+    <row r="14" spans="2:11" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="6">
         <v>12</v>
       </c>
@@ -1288,7 +1295,7 @@
       </c>
       <c r="I14" s="21"/>
     </row>
-    <row r="15" spans="2:11" ht="21" customHeight="1" thickTop="1" thickBot="1">
+    <row r="15" spans="2:11" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="7">
         <v>13</v>
       </c>

--- a/ProjectExecution/BA/ImageResources/ThemeColorPalette001.xlsx
+++ b/ProjectExecution/BA/ImageResources/ThemeColorPalette001.xlsx
@@ -256,7 +256,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -265,15 +265,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thick">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="1"/>
       </left>
@@ -289,158 +280,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
         <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="thick">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
-      <bottom style="thick">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
         <color theme="1"/>
       </bottom>
       <diagonal/>
@@ -460,73 +307,256 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -546,16 +576,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFFFFFF"/>
-      <color rgb="FF0F0F7F"/>
-      <color rgb="FF2F2FAF"/>
-      <color rgb="FF4F4FCF"/>
-      <color rgb="FF2F2F8F"/>
-      <color rgb="FF4F4FBF"/>
+      <color rgb="FFFF7F4F"/>
+      <color rgb="FF4F7FFF"/>
       <color rgb="FF6F6FFF"/>
-      <color rgb="FF6F6FEF"/>
-      <color rgb="FFEFEFFF"/>
-      <color rgb="FFDFDFFF"/>
+      <color rgb="FF5F5FFF"/>
+      <color rgb="FF19C139"/>
+      <color rgb="FFFF9900"/>
+      <color rgb="FF7F0F0F"/>
+      <color rgb="FFAF4F4F"/>
+      <color rgb="FFFFEFEF"/>
+      <color rgb="FFFFDFDF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -861,93 +891,93 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="25" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" style="25" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="25" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="25" customWidth="1"/>
-    <col min="5" max="5" width="32.28515625" style="25" customWidth="1"/>
-    <col min="6" max="16384" width="14.42578125" style="25"/>
+    <col min="1" max="1" width="9" style="4" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="14.42578125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="29" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -964,10 +994,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:K15"/>
+  <dimension ref="B1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -976,348 +1006,361 @@
     <col min="9" max="9" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="2:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
+    <row r="1" spans="2:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="2:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="25" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="2:11" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="6">
+      <c r="J2" s="26"/>
+    </row>
+    <row r="3" spans="2:10" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="27">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>15</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>15</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>127</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="10"/>
-    </row>
-    <row r="4" spans="2:11" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="6">
+      <c r="I3" s="11"/>
+      <c r="J3" s="28"/>
+    </row>
+    <row r="4" spans="2:10" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="27">
         <v>2</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>47</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>47</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>175</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="11"/>
-    </row>
-    <row r="5" spans="2:11" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="6">
+      <c r="I4" s="12"/>
+      <c r="J4" s="28"/>
+    </row>
+    <row r="5" spans="2:10" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="27">
         <v>3</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>79</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>79</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>207</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="12"/>
-    </row>
-    <row r="6" spans="2:11" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="6">
+      <c r="I5" s="13"/>
+      <c r="J5" s="28"/>
+    </row>
+    <row r="6" spans="2:10" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="27">
         <v>4</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>111</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>111</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>239</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="13"/>
-    </row>
-    <row r="7" spans="2:11" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="6">
+      <c r="I6" s="14"/>
+      <c r="J6" s="28"/>
+    </row>
+    <row r="7" spans="2:10" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="27">
         <v>5</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>127</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>127</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>255</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="14"/>
-    </row>
-    <row r="8" spans="2:11" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="6">
+      <c r="I7" s="15"/>
+      <c r="J7" s="28"/>
+    </row>
+    <row r="8" spans="2:10" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="27">
         <v>6</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>143</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>143</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>255</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="15"/>
-    </row>
-    <row r="9" spans="2:11" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="6">
+      <c r="I8" s="16"/>
+      <c r="J8" s="28"/>
+    </row>
+    <row r="9" spans="2:10" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="27">
         <v>7</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>159</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>159</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>255</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="16"/>
-    </row>
-    <row r="10" spans="2:11" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="6">
+      <c r="I9" s="17"/>
+      <c r="J9" s="28"/>
+    </row>
+    <row r="10" spans="2:10" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="27">
         <v>8</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>175</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>175</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>255</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="17"/>
-    </row>
-    <row r="11" spans="2:11" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="6">
+      <c r="I10" s="18"/>
+      <c r="J10" s="28"/>
+    </row>
+    <row r="11" spans="2:10" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="27">
         <v>9</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>191</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>191</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>255</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="18"/>
-    </row>
-    <row r="12" spans="2:11" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="6">
+      <c r="I11" s="19"/>
+      <c r="J11" s="28"/>
+    </row>
+    <row r="12" spans="2:10" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="27">
         <v>10</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>207</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>207</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>255</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="19"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="2:11" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="6">
+      <c r="I12" s="20"/>
+      <c r="J12" s="28"/>
+    </row>
+    <row r="13" spans="2:10" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="27">
         <v>11</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>223</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>223</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>255</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="20"/>
-    </row>
-    <row r="14" spans="2:11" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="6">
+      <c r="I13" s="21"/>
+      <c r="J13" s="28"/>
+    </row>
+    <row r="14" spans="2:10" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="27">
         <v>12</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>239</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>239</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>255</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="21"/>
-    </row>
-    <row r="15" spans="2:11" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="7">
+      <c r="I14" s="22"/>
+      <c r="J14" s="28"/>
+    </row>
+    <row r="15" spans="2:10" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="29">
         <v>13</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="30">
         <v>255</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="30">
         <v>255</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="30">
         <v>255</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="24" t="s">
+      <c r="H15" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="22"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
